--- a/01-Single-Layer/Charts/mse_Adaline.xlsx
+++ b/01-Single-Layer/Charts/mse_Adaline.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="LR=0.01" sheetId="1" r:id="rId1"/>
-    <sheet name="LR=0.05 - LR=0.05" sheetId="2" r:id="rId2"/>
+    <sheet name="LR=0.05" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -814,7 +814,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'LR=0.05 - LR=0.05'!$B$2</c:f>
+              <c:f>'LR=0.05'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -838,7 +838,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'LR=0.05 - LR=0.05'!$A$3:$A$27</c:f>
+              <c:f>'LR=0.05'!$A$3:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -922,7 +922,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LR=0.05 - LR=0.05'!$B$3:$B$27</c:f>
+              <c:f>'LR=0.05'!$B$3:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2322,7 +2322,7 @@
   </sheetPr>
   <dimension ref="A1:IV41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -2679,7 +2679,7 @@
   </sheetPr>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
